--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_errors_T45_since_2021.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_errors_T45_since_2021.xlsx
@@ -501,34 +501,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.2433086034063205</v>
+        <v>2.03161760340632</v>
       </c>
       <c r="C2">
-        <v>2.03161760340632</v>
+        <v>-1.146501396593679</v>
       </c>
       <c r="D2">
-        <v>-1.146501396593679</v>
+        <v>-1.441830396593679</v>
       </c>
       <c r="E2">
-        <v>-1.441830396593679</v>
+        <v>1.072614603406321</v>
       </c>
       <c r="F2">
-        <v>1.072614603406321</v>
+        <v>0.1428926034063205</v>
       </c>
       <c r="G2">
-        <v>0.1428926034063205</v>
+        <v>0.3779006034063205</v>
       </c>
       <c r="H2">
-        <v>0.3779006034063205</v>
+        <v>0.07076460340632051</v>
       </c>
       <c r="I2">
-        <v>0.07076460340632051</v>
+        <v>0.5814406034063205</v>
       </c>
       <c r="J2">
-        <v>0.5814406034063205</v>
+        <v>0.2940736034063205</v>
       </c>
       <c r="K2">
-        <v>0.2940736034063205</v>
+        <v>0.3220726034063205</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -536,34 +536,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-0.115952868393072</v>
+        <v>-3.294071868393072</v>
       </c>
       <c r="C3">
-        <v>-3.294071868393072</v>
+        <v>-3.589400868393072</v>
       </c>
       <c r="D3">
-        <v>-3.589400868393072</v>
+        <v>-1.074955868393072</v>
       </c>
       <c r="E3">
-        <v>-1.074955868393072</v>
+        <v>-2.004677868393072</v>
       </c>
       <c r="F3">
-        <v>-2.004677868393072</v>
+        <v>-1.769669868393072</v>
       </c>
       <c r="G3">
-        <v>-1.769669868393072</v>
+        <v>-2.076805868393072</v>
       </c>
       <c r="H3">
-        <v>-2.076805868393072</v>
+        <v>-1.566129868393072</v>
       </c>
       <c r="I3">
-        <v>-1.566129868393072</v>
+        <v>-1.853496868393072</v>
       </c>
       <c r="J3">
-        <v>-1.853496868393072</v>
+        <v>-1.825497868393072</v>
       </c>
       <c r="K3">
-        <v>-1.825497868393072</v>
+        <v>-1.732849868393072</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -571,34 +571,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1459581181302581</v>
+        <v>-0.1493708818697419</v>
       </c>
       <c r="C4">
-        <v>-0.1493708818697419</v>
+        <v>2.365074118130258</v>
       </c>
       <c r="D4">
-        <v>2.365074118130258</v>
+        <v>1.435352118130258</v>
       </c>
       <c r="E4">
-        <v>1.435352118130258</v>
+        <v>1.670360118130258</v>
       </c>
       <c r="F4">
-        <v>1.670360118130258</v>
+        <v>1.363224118130258</v>
       </c>
       <c r="G4">
-        <v>1.363224118130258</v>
+        <v>1.873900118130258</v>
       </c>
       <c r="H4">
-        <v>1.873900118130258</v>
+        <v>1.586533118130258</v>
       </c>
       <c r="I4">
-        <v>1.586533118130258</v>
+        <v>1.614532118130258</v>
       </c>
       <c r="J4">
-        <v>1.614532118130258</v>
+        <v>1.707180118130258</v>
       </c>
       <c r="K4">
-        <v>1.707180118130258</v>
+        <v>1.920156118130258</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -606,34 +606,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-0.08819670345554087</v>
+        <v>2.426248296544459</v>
       </c>
       <c r="C5">
-        <v>2.426248296544459</v>
+        <v>1.496526296544459</v>
       </c>
       <c r="D5">
-        <v>1.496526296544459</v>
+        <v>1.731534296544459</v>
       </c>
       <c r="E5">
-        <v>1.731534296544459</v>
+        <v>1.424398296544459</v>
       </c>
       <c r="F5">
-        <v>1.424398296544459</v>
+        <v>1.935074296544459</v>
       </c>
       <c r="G5">
-        <v>1.935074296544459</v>
+        <v>1.647707296544459</v>
       </c>
       <c r="H5">
-        <v>1.647707296544459</v>
+        <v>1.675706296544459</v>
       </c>
       <c r="I5">
-        <v>1.675706296544459</v>
+        <v>1.768354296544459</v>
       </c>
       <c r="J5">
-        <v>1.768354296544459</v>
+        <v>1.981330296544459</v>
       </c>
       <c r="K5">
-        <v>1.981330296544459</v>
+        <v>1.480670296544459</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -641,34 +641,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.3847923593882046</v>
+        <v>-0.5449296406117954</v>
       </c>
       <c r="C6">
-        <v>-0.5449296406117954</v>
+        <v>-0.3099216406117954</v>
       </c>
       <c r="D6">
-        <v>-0.3099216406117954</v>
+        <v>-0.6170576406117954</v>
       </c>
       <c r="E6">
-        <v>-0.6170576406117954</v>
+        <v>-0.1063816406117954</v>
       </c>
       <c r="F6">
-        <v>-0.1063816406117954</v>
+        <v>-0.3937486406117954</v>
       </c>
       <c r="G6">
-        <v>-0.3937486406117954</v>
+        <v>-0.3657496406117954</v>
       </c>
       <c r="H6">
-        <v>-0.3657496406117954</v>
+        <v>-0.2731016406117954</v>
       </c>
       <c r="I6">
-        <v>-0.2731016406117954</v>
+        <v>-0.06012564061179543</v>
       </c>
       <c r="J6">
-        <v>-0.06012564061179543</v>
+        <v>-0.5607856406117955</v>
       </c>
       <c r="K6">
-        <v>-0.5607856406117955</v>
+        <v>-0.2710286406117954</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -676,34 +676,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.03766489642184559</v>
+        <v>0.2726728964218456</v>
       </c>
       <c r="C7">
-        <v>0.2726728964218456</v>
+        <v>-0.03446310357815441</v>
       </c>
       <c r="D7">
-        <v>-0.03446310357815441</v>
+        <v>0.4762128964218456</v>
       </c>
       <c r="E7">
-        <v>0.4762128964218456</v>
+        <v>0.1888458964218456</v>
       </c>
       <c r="F7">
-        <v>0.1888458964218456</v>
+        <v>0.2168448964218456</v>
       </c>
       <c r="G7">
-        <v>0.2168448964218456</v>
+        <v>0.3094928964218456</v>
       </c>
       <c r="H7">
-        <v>0.3094928964218456</v>
+        <v>0.5224688964218456</v>
       </c>
       <c r="I7">
-        <v>0.5224688964218456</v>
+        <v>0.02180889642184558</v>
       </c>
       <c r="J7">
-        <v>0.02180889642184558</v>
+        <v>0.3115658964218456</v>
       </c>
       <c r="K7">
-        <v>0.3115658964218456</v>
+        <v>0.05367389642184558</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -711,34 +711,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.1769978556124878</v>
+        <v>-0.1301381443875122</v>
       </c>
       <c r="C8">
-        <v>-0.1301381443875122</v>
+        <v>0.3805378556124878</v>
       </c>
       <c r="D8">
-        <v>0.3805378556124878</v>
+        <v>0.09317085561248779</v>
       </c>
       <c r="E8">
-        <v>0.09317085561248779</v>
+        <v>0.1211698556124878</v>
       </c>
       <c r="F8">
-        <v>0.1211698556124878</v>
+        <v>0.2138178556124878</v>
       </c>
       <c r="G8">
-        <v>0.2138178556124878</v>
+        <v>0.4267938556124878</v>
       </c>
       <c r="H8">
-        <v>0.4267938556124878</v>
+        <v>-0.07386614438751221</v>
       </c>
       <c r="I8">
-        <v>-0.07386614438751221</v>
+        <v>0.2158908556124878</v>
       </c>
       <c r="J8">
-        <v>0.2158908556124878</v>
+        <v>-0.04200114438751221</v>
       </c>
       <c r="K8">
-        <v>-0.04200114438751221</v>
+        <v>0.3403798556124878</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,34 +746,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.1302808926112106</v>
+        <v>0.6409568926112106</v>
       </c>
       <c r="C9">
-        <v>0.6409568926112106</v>
+        <v>0.3535898926112106</v>
       </c>
       <c r="D9">
-        <v>0.3535898926112106</v>
+        <v>0.3815888926112106</v>
       </c>
       <c r="E9">
-        <v>0.3815888926112106</v>
+        <v>0.4742368926112106</v>
       </c>
       <c r="F9">
-        <v>0.4742368926112106</v>
+        <v>0.6872128926112107</v>
       </c>
       <c r="G9">
-        <v>0.6872128926112107</v>
+        <v>0.1865528926112106</v>
       </c>
       <c r="H9">
-        <v>0.1865528926112106</v>
+        <v>0.4763098926112106</v>
       </c>
       <c r="I9">
-        <v>0.4763098926112106</v>
+        <v>0.2184178926112106</v>
       </c>
       <c r="J9">
-        <v>0.2184178926112106</v>
+        <v>0.6007988926112107</v>
       </c>
       <c r="K9">
-        <v>0.6007988926112107</v>
+        <v>0.1895217986112106</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,34 +781,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.1944981035472806</v>
+        <v>-0.4818651035472806</v>
       </c>
       <c r="C10">
-        <v>-0.4818651035472806</v>
+        <v>-0.4538661035472806</v>
       </c>
       <c r="D10">
-        <v>-0.4538661035472806</v>
+        <v>-0.3612181035472806</v>
       </c>
       <c r="E10">
-        <v>-0.3612181035472806</v>
+        <v>-0.1482421035472806</v>
       </c>
       <c r="F10">
-        <v>-0.1482421035472806</v>
+        <v>-0.6489021035472806</v>
       </c>
       <c r="G10">
-        <v>-0.6489021035472806</v>
+        <v>-0.3591451035472806</v>
       </c>
       <c r="H10">
-        <v>-0.3591451035472806</v>
+        <v>-0.6170371035472806</v>
       </c>
       <c r="I10">
-        <v>-0.6170371035472806</v>
+        <v>-0.2346561035472806</v>
       </c>
       <c r="J10">
-        <v>-0.2346561035472806</v>
+        <v>-0.6459331975472806</v>
       </c>
       <c r="K10">
-        <v>-0.6459331975472806</v>
+        <v>-0.3589771035472806</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -816,33 +816,30 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.3817857436446591</v>
+        <v>-0.3537867436446591</v>
       </c>
       <c r="C11">
-        <v>-0.3537867436446591</v>
+        <v>-0.2611387436446591</v>
       </c>
       <c r="D11">
-        <v>-0.2611387436446591</v>
+        <v>-0.04816274364465911</v>
       </c>
       <c r="E11">
-        <v>-0.04816274364465911</v>
+        <v>-0.5488227436446591</v>
       </c>
       <c r="F11">
-        <v>-0.5488227436446591</v>
+        <v>-0.2590657436446591</v>
       </c>
       <c r="G11">
-        <v>-0.2590657436446591</v>
+        <v>-0.5169577436446591</v>
       </c>
       <c r="H11">
-        <v>-0.5169577436446591</v>
+        <v>-0.1345767436446591</v>
       </c>
       <c r="I11">
-        <v>-0.1345767436446591</v>
+        <v>-0.5458538376446591</v>
       </c>
       <c r="J11">
-        <v>-0.5458538376446591</v>
-      </c>
-      <c r="K11">
         <v>-0.2588977436446591</v>
       </c>
     </row>
@@ -851,30 +848,27 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-2.375649628613696E-07</v>
+        <v>0.09264776243503714</v>
       </c>
       <c r="C12">
-        <v>0.09264776243503714</v>
+        <v>0.3056237624350371</v>
       </c>
       <c r="D12">
-        <v>0.3056237624350371</v>
+        <v>-0.1950362375649629</v>
       </c>
       <c r="E12">
-        <v>-0.1950362375649629</v>
+        <v>0.09472076243503715</v>
       </c>
       <c r="F12">
-        <v>0.09472076243503715</v>
+        <v>-0.1631712375649629</v>
       </c>
       <c r="G12">
-        <v>-0.1631712375649629</v>
+        <v>0.2192097624350371</v>
       </c>
       <c r="H12">
-        <v>0.2192097624350371</v>
+        <v>-0.1920673315649629</v>
       </c>
       <c r="I12">
-        <v>-0.1920673315649629</v>
-      </c>
-      <c r="J12">
         <v>0.09488876243503713</v>
       </c>
     </row>
@@ -883,27 +877,24 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.0555296279974082</v>
+        <v>0.1574463720025918</v>
       </c>
       <c r="C13">
-        <v>0.1574463720025918</v>
+        <v>-0.3432136279974082</v>
       </c>
       <c r="D13">
-        <v>-0.3432136279974082</v>
+        <v>-0.05345662799740819</v>
       </c>
       <c r="E13">
-        <v>-0.05345662799740819</v>
+        <v>-0.3113486279974082</v>
       </c>
       <c r="F13">
-        <v>-0.3113486279974082</v>
+        <v>0.0710323720025918</v>
       </c>
       <c r="G13">
-        <v>0.0710323720025918</v>
+        <v>-0.3402447219974082</v>
       </c>
       <c r="H13">
-        <v>-0.3402447219974082</v>
-      </c>
-      <c r="I13">
         <v>-0.0532886279974082</v>
       </c>
     </row>
@@ -912,24 +903,21 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>3.829984367986761E-07</v>
+        <v>-0.5006596170015631</v>
       </c>
       <c r="C14">
-        <v>-0.5006596170015631</v>
+        <v>-0.2109026170015632</v>
       </c>
       <c r="D14">
-        <v>-0.2109026170015632</v>
+        <v>-0.4687946170015632</v>
       </c>
       <c r="E14">
-        <v>-0.4687946170015632</v>
+        <v>-0.08641361700156319</v>
       </c>
       <c r="F14">
-        <v>-0.08641361700156319</v>
+        <v>-0.4976907110015631</v>
       </c>
       <c r="G14">
-        <v>-0.4976907110015631</v>
-      </c>
-      <c r="H14">
         <v>-0.2107346170015632</v>
       </c>
     </row>
@@ -938,21 +926,18 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1.604754923945073E-07</v>
+        <v>0.2897568395245076</v>
       </c>
       <c r="C15">
-        <v>0.2897568395245076</v>
+        <v>0.03186483952450761</v>
       </c>
       <c r="D15">
-        <v>0.03186483952450761</v>
+        <v>0.4142458395245076</v>
       </c>
       <c r="E15">
-        <v>0.4142458395245076</v>
+        <v>0.002968745524507627</v>
       </c>
       <c r="F15">
-        <v>0.002968745524507627</v>
-      </c>
-      <c r="G15">
         <v>0.2899248395245076</v>
       </c>
     </row>
@@ -961,69 +946,54 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.009398958989038461</v>
+        <v>-0.2484930410109615</v>
       </c>
       <c r="C16">
-        <v>-0.2484930410109615</v>
+        <v>0.1338879589890384</v>
       </c>
       <c r="D16">
-        <v>0.1338879589890384</v>
+        <v>-0.2773891350109615</v>
       </c>
       <c r="E16">
-        <v>-0.2773891350109615</v>
-      </c>
-      <c r="F16">
         <v>0.009566958989038449</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.07651818316594991</v>
+        <v>0.3058628168340501</v>
       </c>
       <c r="C17">
-        <v>0.3058628168340501</v>
+        <v>-0.1054142771659499</v>
       </c>
       <c r="D17">
-        <v>-0.1054142771659499</v>
-      </c>
-      <c r="E17">
         <v>0.1815418168340501</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>2.770877186031306E-07</v>
+        <v>-0.4112768169122814</v>
       </c>
       <c r="C18">
-        <v>-0.4112768169122814</v>
-      </c>
-      <c r="D18">
         <v>-0.1243207229122814</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.2010531357750048</v>
-      </c>
-      <c r="C19">
         <v>0.4880092297750048</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B20">
-        <v>-0.2003621554241067</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_errors_T45_since_2021.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_errors_T45_since_2021.xlsx
@@ -501,34 +501,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>0.2433086034063205</v>
+      </c>
+      <c r="C2">
         <v>2.03161760340632</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-1.146501396593679</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-1.441830396593679</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.072614603406321</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.1428926034063205</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.3779006034063205</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.07076460340632051</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.5814406034063205</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.2940736034063205</v>
-      </c>
-      <c r="K2">
-        <v>0.3220726034063205</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -536,34 +536,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>-0.115952868393072</v>
+      </c>
+      <c r="C3">
         <v>-3.294071868393072</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-3.589400868393072</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-1.074955868393072</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-2.004677868393072</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-1.769669868393072</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-2.076805868393072</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-1.566129868393072</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-1.853496868393072</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-1.825497868393072</v>
-      </c>
-      <c r="K3">
-        <v>-1.732849868393072</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -571,34 +571,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>0.1459581181302581</v>
+      </c>
+      <c r="C4">
         <v>-0.1493708818697419</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2.365074118130258</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.435352118130258</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.670360118130258</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.363224118130258</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.873900118130258</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.586533118130258</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.614532118130258</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1.707180118130258</v>
-      </c>
-      <c r="K4">
-        <v>1.920156118130258</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -606,34 +606,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>-0.08819670345554087</v>
+      </c>
+      <c r="C5">
         <v>2.426248296544459</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.496526296544459</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.731534296544459</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.424398296544459</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.935074296544459</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1.647707296544459</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.675706296544459</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.768354296544459</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1.981330296544459</v>
-      </c>
-      <c r="K5">
-        <v>1.480670296544459</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -641,34 +641,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>0.3847923593882046</v>
+      </c>
+      <c r="C6">
         <v>-0.5449296406117954</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.3099216406117954</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.6170576406117954</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-0.1063816406117954</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.3937486406117954</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.3657496406117954</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.2731016406117954</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.06012564061179543</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-0.5607856406117955</v>
-      </c>
-      <c r="K6">
-        <v>-0.2710286406117954</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -676,34 +676,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>0.03766489642184559</v>
+      </c>
+      <c r="C7">
         <v>0.2726728964218456</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.03446310357815441</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.4762128964218456</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.1888458964218456</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.2168448964218456</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.3094928964218456</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.5224688964218456</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.02180889642184558</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.3115658964218456</v>
-      </c>
-      <c r="K7">
-        <v>0.05367389642184558</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -711,34 +711,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>0.1769978556124878</v>
+      </c>
+      <c r="C8">
         <v>-0.1301381443875122</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.3805378556124878</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.09317085561248779</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.1211698556124878</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.2138178556124878</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.4267938556124878</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-0.07386614438751221</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.2158908556124878</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-0.04200114438751221</v>
-      </c>
-      <c r="K8">
-        <v>0.3403798556124878</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,34 +746,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.1302808926112106</v>
+      </c>
+      <c r="C9">
         <v>0.6409568926112106</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.3535898926112106</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.3815888926112106</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.4742368926112106</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.6872128926112107</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.1865528926112106</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.4763098926112106</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.2184178926112106</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.6007988926112107</v>
-      </c>
-      <c r="K9">
-        <v>0.1895217986112106</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,34 +781,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.1944981035472806</v>
+      </c>
+      <c r="C10">
         <v>-0.4818651035472806</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.4538661035472806</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.3612181035472806</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.1482421035472806</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.6489021035472806</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.3591451035472806</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.6170371035472806</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.2346561035472806</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-0.6459331975472806</v>
-      </c>
-      <c r="K10">
-        <v>-0.3589771035472806</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -816,30 +816,33 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>-0.3817857436446591</v>
+      </c>
+      <c r="C11">
         <v>-0.3537867436446591</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-0.2611387436446591</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.04816274364465911</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.5488227436446591</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.2590657436446591</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.5169577436446591</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.1345767436446591</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.5458538376446591</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-0.2588977436446591</v>
       </c>
     </row>
@@ -848,27 +851,30 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>-2.375649628613696E-07</v>
+      </c>
+      <c r="C12">
         <v>0.09264776243503714</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.3056237624350371</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-0.1950362375649629</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.09472076243503715</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.1631712375649629</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.2192097624350371</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.1920673315649629</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.09488876243503713</v>
       </c>
     </row>
@@ -877,24 +883,27 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-0.0555296279974082</v>
+      </c>
+      <c r="C13">
         <v>0.1574463720025918</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-0.3432136279974082</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.05345662799740819</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-0.3113486279974082</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.0710323720025918</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-0.3402447219974082</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-0.0532886279974082</v>
       </c>
     </row>
@@ -903,21 +912,24 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>3.829984367986761E-07</v>
+      </c>
+      <c r="C14">
         <v>-0.5006596170015631</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.2109026170015632</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.4687946170015632</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.08641361700156319</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.4976907110015631</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.2107346170015632</v>
       </c>
     </row>
@@ -926,18 +938,21 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>-1.604754923945073E-07</v>
+      </c>
+      <c r="C15">
         <v>0.2897568395245076</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.03186483952450761</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.4142458395245076</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.002968745524507627</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.2899248395245076</v>
       </c>
     </row>
@@ -946,54 +961,69 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>0.009398958989038461</v>
+      </c>
+      <c r="C16">
         <v>-0.2484930410109615</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.1338879589890384</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-0.2773891350109615</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.009566958989038449</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
+        <v>-0.07651818316594991</v>
+      </c>
+      <c r="C17">
         <v>0.3058628168340501</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-0.1054142771659499</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.1815418168340501</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
+        <v>2.770877186031306E-07</v>
+      </c>
+      <c r="C18">
         <v>-0.4112768169122814</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-0.1243207229122814</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
+        <v>0.2010531357750048</v>
+      </c>
+      <c r="C19">
         <v>0.4880092297750048</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-0.2003621554241067</v>
       </c>
     </row>
   </sheetData>
